--- a/VALOR/Exportación por Lugar de Salida 2019 - Mensual - Editado.xlsx
+++ b/VALOR/Exportación por Lugar de Salida 2019 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Exportaciones\FOB\2019\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\VALOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F6DFDE3-02ED-4987-8EA4-92FEED6E9AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A469722-A9E8-4CA5-8332-263308C5FFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="puerto_monto" sheetId="5" r:id="rId1"/>
@@ -356,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -397,12 +397,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -419,6 +515,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,20 +528,423 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -455,6 +955,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C3ED220-9EEB-485F-B356-92EF9537938B}" name="exp_salida_valor_2019" displayName="exp_salida_valor_2019" ref="A1:M60" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:M60" xr:uid="{D4854DF8-A84F-42AC-8D3B-D3762E875A02}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{7629B687-11F9-49E4-95EB-DE6FBF7B458E}" name="Lugar de Salida (Puerto-Aeropuerto-Avanzada)" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{5A251BE6-C0B3-4A8E-8E73-D59A2440D406}" name="Enero - 2019" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{E0DAA048-213A-461D-8D51-CA8F8E2C610E}" name="Febrero - 2019" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{A383FB03-4468-42FE-8D95-FF9501552704}" name="Marzo - 2019" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E0577D0F-D4E8-4FDD-8B76-F7A6E8BBCF30}" name="Abril - 2019" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{C2E13306-A319-43FF-9DC1-D8616813EC71}" name="Mayo - 2019" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{CE4A9F6F-98C4-491F-9D08-4E7FB5C37DB1}" name="Junio - 2019" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{AE58C8CC-FD15-4DBA-97AC-BA5458DE110C}" name="Julio - 2019" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{9C4AA442-EC08-4DDA-9B8B-A6A567B7FF6E}" name="Agosto - 2019" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{1CA137C0-B250-4708-B095-7EDB68856CF0}" name="Septiembre - 2019" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{779B8E15-A7ED-4B10-96C0-002F98ECC832}" name="Octubre - 2019" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{B8CF4719-0E60-4065-8BA7-D72946BBFFEF}" name="Noviembre - 2019" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{FD75D938-C3F6-4E71-BB06-64F2E5390562}" name="Diciembre - 2019" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,43 +1262,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="11" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -820,7 +1342,7 @@
       <c r="N4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="12"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -3483,2478 +4005,2485 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" style="1" customWidth="1"/>
-    <col min="3" max="13" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="10">
         <v>516151669.02000028</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="10">
         <v>335249932.33000004</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="10">
         <v>391327843.39000064</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="10">
         <v>502454462.15000063</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="10">
         <v>436806288.37000138</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="10">
         <v>465838774.8000012</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="10">
         <v>382595625.66000009</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="10">
         <v>313648956.89000046</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="10">
         <v>332993314.06999981</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="10">
         <v>470100924.96999943</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="10">
         <v>375571594.19000113</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>374529028.05999994</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="10">
         <v>384822.00000000006</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="10">
         <v>691065.03999999992</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="10">
         <v>79416.350000000006</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="10">
         <v>72138.22</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="10">
         <v>32671.83</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="10">
         <v>27063.95</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="10">
         <v>4025</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="10">
         <v>15919.119999999999</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="10">
         <v>28091.759999999998</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="10">
         <v>14238.85</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="10">
         <v>22914.899999999998</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>375641.1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="10">
         <v>3031.26</v>
       </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17">
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
         <v>5329.74</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="10">
         <v>1172351.23</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="10">
         <v>495624.16000000003</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="10">
         <v>1322931.0799999998</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="10">
         <v>1237768.8599999999</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="10">
         <v>756273.34</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="10">
         <v>3069301.45</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="10">
         <v>679400.88</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="10">
         <v>504485.56</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="10">
         <v>24219.16</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="10">
         <v>1074956.94</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="10">
         <v>39128.07</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>9719.2199999999993</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="10">
         <v>45696.520000000004</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="10">
         <v>70485.759999999995</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="10">
         <v>66059.91</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="10">
         <v>70914.55</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="10">
         <v>30401.119999999999</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="10">
         <v>14034095.1</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="10">
         <v>24155.200000000001</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="10">
         <v>99897.89</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="10">
         <v>31202.27</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="10">
         <v>57222.399999999994</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="10">
         <v>25143</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>39245.65</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0</v>
-      </c>
-      <c r="K7" s="17">
-        <v>0</v>
-      </c>
-      <c r="L7" s="17">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
         <v>17190.240000000002</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="10">
         <v>556151603.52999997</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="10">
         <v>264325691.96000001</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="10">
         <v>517976439.16000009</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="10">
         <v>454128276.19999999</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="10">
         <v>344883872.77999997</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="10">
         <v>403011280.7100001</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="10">
         <v>345769970.8499999</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="10">
         <v>500601740.28999996</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="10">
         <v>286781889.98000002</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="10">
         <v>567423696.63999999</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="10">
         <v>339248560.72000003</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>470598798.65999997</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="10">
         <v>20021663.949999999</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="10">
         <v>12528011.999999998</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="10">
         <v>13321733.859999996</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="10">
         <v>13737956.870000001</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="10">
         <v>12871227.140000001</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="10">
         <v>13205257.25</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="10">
         <v>16271191.480000002</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="10">
         <v>12332129.949999999</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="10">
         <v>18513517.710000001</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="10">
         <v>15749918.15</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="10">
         <v>20232021.150000002</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>20961661.81000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="10">
         <v>22192686.789999999</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="10">
         <v>33892697.960000001</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="10">
         <v>27006493.959999997</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="10">
         <v>24921013.670000002</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="10">
         <v>21467349.670000002</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="10">
         <v>31948619.949999999</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="10">
         <v>32462291.099999998</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="10">
         <v>11943356.549999999</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="10">
         <v>9793370.5</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="10">
         <v>41530064.060000002</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="10">
         <v>27184768.129999999</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>23996168.93</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="10">
         <v>9683131.7999999989</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="10">
         <v>7264712.6800000006</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="10">
         <v>7131556.3799999999</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="10">
         <v>8961344.1899999995</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="10">
         <v>15814558.220000001</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="10">
         <v>12403852.699999999</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="10">
         <v>3733005.43</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="10">
         <v>7741771.4400000004</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="10">
         <v>3490953.12</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="10">
         <v>7422058</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="10">
         <v>3458</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>12448307.01</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="10">
         <v>123444601.34</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="10">
         <v>264497241.88999999</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="10">
         <v>114582616.69999999</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="10">
         <v>162967520.88999999</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="10">
         <v>148171449.88</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="10">
         <v>145060813.33000001</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="10">
         <v>157004576.60000002</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="10">
         <v>193215997.25</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="10">
         <v>182649556.90000001</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="10">
         <v>142759318.46000001</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="10">
         <v>148972152.78</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>160742526.72000003</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="10">
         <v>452287929.45999998</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="10">
         <v>167003382.39000002</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="10">
         <v>374729556.06999999</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="10">
         <v>522225330.62</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="10">
         <v>450204886.06000006</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="10">
         <v>269651890.59000003</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="10">
         <v>552142646.48000002</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="10">
         <v>468004255.92999995</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="10">
         <v>334357977.33999997</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="10">
         <v>528951287.12999994</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="10">
         <v>404693317.96999997</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>387872427.63999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="10">
         <v>7364903.3899999987</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="10">
         <v>10644431.090000002</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="10">
         <v>7475692.1500000004</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="10">
         <v>7023811.3000000007</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="10">
         <v>2553879.23</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="10">
         <v>5099998.13</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="10">
         <v>10469781.159999998</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="10">
         <v>3372507.5200000005</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="10">
         <v>5243225.33</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="10">
         <v>1548284.51</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="10">
         <v>1684852.24</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>827136.98</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="10">
         <v>10982670.939999996</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="10">
         <v>9576070.1900000013</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="10">
         <v>13608505.159999995</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="10">
         <v>14339441.76</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="10">
         <v>13439808.840000009</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="10">
         <v>9304162.1900000013</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="10">
         <v>14652489.440000005</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="10">
         <v>10616266.849999998</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="10">
         <v>10559664</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="10">
         <v>11931386.479999995</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="10">
         <v>13937581.970000001</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <v>14100572.29000001</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="10">
         <v>8740171.5899999999</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="10">
         <v>11609334.279999999</v>
       </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
         <v>17661511.84</v>
       </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
         <v>7639868.46</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="10">
         <v>9276724.5199999996</v>
       </c>
-      <c r="K16" s="17">
-        <v>0</v>
-      </c>
-      <c r="L16" s="17">
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
         <v>10527.61</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="10">
         <v>367468.62</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="10">
         <v>450727</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="10">
         <v>251849.08000000002</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="10">
         <v>175930.08</v>
       </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="17">
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="10">
         <v>17077281.079999998</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="10">
         <v>9571601.1300000064</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="10">
         <v>8570935.2800000012</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="10">
         <v>10560213.049999995</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="10">
         <v>14162390.460000001</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="10">
         <v>9580299.3500000015</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="10">
         <v>10987917.540000003</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="10">
         <v>9277491.6999999899</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="10">
         <v>9405649.8200000003</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="10">
         <v>9403295.1300000008</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="10">
         <v>7884638.6199999982</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="16">
         <v>10482176.84999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="10">
         <v>7575126.2100000009</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="10">
         <v>1661187.7799999998</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="10">
         <v>3739258.6000000006</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="10">
         <v>4121714.2199999993</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="10">
         <v>14033733.430000003</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="10">
         <v>17548889.279999997</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="10">
         <v>4742347.17</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="10">
         <v>11099122.34</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="10">
         <v>2880451.3899999997</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="10">
         <v>1945805.4200000002</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="10">
         <v>2506998.66</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="16">
         <v>2500036.2000000002</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="10">
         <v>94405157.829999998</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="10">
         <v>73898593.930000007</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="10">
         <v>52922351.439999998</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="10">
         <v>56297304.210000001</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="10">
         <v>4486787.5199999996</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="10">
         <v>55564333.589999996</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="10">
         <v>35460803.100000001</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="10">
         <v>73972379.109999999</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="10">
         <v>35737534.640000001</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="10">
         <v>17797821.290000003</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="10">
         <v>56799389.140000001</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="16">
         <v>26327849.920000002</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="10">
         <v>377498259.66000026</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="10">
         <v>334598955.66999984</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="10">
         <v>322435994.27000028</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="10">
         <v>333295260.34999943</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="10">
         <v>356299837.05000007</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="10">
         <v>315820690.91999966</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="10">
         <v>367294227.1000005</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="10">
         <v>321955425.75999987</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="10">
         <v>297745951.71999985</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="10">
         <v>312032566.30000019</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="10">
         <v>244905423.00000006</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="16">
         <v>304018827.64000028</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="10">
         <v>6540515.0500000007</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="10">
         <v>8350267.1699999999</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="10">
         <v>7394139.9699999997</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="10">
         <v>8205102.4500000002</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="10">
         <v>7804619.7400000002</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="10">
         <v>6009820.2000000002</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="10">
         <v>7434355.0500000007</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="10">
         <v>3573304.32</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="10">
         <v>7075112.959999999</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="10">
         <v>7704177.5899999999</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="10">
         <v>49991619.729999997</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="16">
         <v>7513850.2400000002</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
         <v>6.05</v>
       </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
         <v>21000</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="10">
         <v>15.31</v>
       </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
-        <v>0</v>
-      </c>
-      <c r="K23" s="17">
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
         <v>6.55</v>
       </c>
-      <c r="L23" s="17">
-        <v>0</v>
-      </c>
-      <c r="M23" s="17">
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16">
         <v>6.18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17">
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
         <v>1800</v>
       </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
-        <v>0</v>
-      </c>
-      <c r="K24" s="17">
-        <v>0</v>
-      </c>
-      <c r="L24" s="17">
-        <v>0</v>
-      </c>
-      <c r="M24" s="17">
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="10">
         <v>14152076.51</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="10">
         <v>13854341.73</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="10">
         <v>1050019.92</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="10">
         <v>16094468.359999999</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="10">
         <v>9231070.3200000003</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="10">
         <v>14425582.59</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="10">
         <v>31402060.32</v>
       </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
         <v>28838949.040000003</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="10">
         <v>23033543.220000003</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="10">
         <v>5632996.9100000001</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="16">
         <v>12028695.1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="10">
         <v>1005</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="10">
         <v>1642.6</v>
       </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
         <v>11427036.57</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="10">
         <v>9416239.5800000001</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="10">
         <v>9496245.9400000013</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="10">
         <v>3327.58</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="10">
         <v>13677.59</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="10">
         <v>3390201.54</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="10">
         <v>4184316.66</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="16">
         <v>7375413.79</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="10">
         <v>19695255.449999999</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="10">
         <v>13974586.770000001</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="10">
         <v>15212442.869999999</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="10">
         <v>11804821.870000001</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="10">
         <v>19183204.739999998</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="10">
         <v>14631533.779999999</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="10">
         <v>16995609.879999999</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="10">
         <v>19449332.060000002</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="10">
         <v>12289361.439999999</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="10">
         <v>5915662.7199999997</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="10">
         <v>14019369.800000003</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="16">
         <v>11652174.98</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="10">
         <v>67218487.569999993</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="10">
         <v>47802353.669999994</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="10">
         <v>97796680.650000021</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="10">
         <v>87905882.680000007</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="10">
         <v>81823335.679999992</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="10">
         <v>120563892.31999998</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="10">
         <v>98656876.399999991</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="10">
         <v>66882776.630000003</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="10">
         <v>53507119.120000005</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="10">
         <v>54729451.519999996</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="10">
         <v>40410813.769999996</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="16">
         <v>62099005.380000003</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="10">
         <v>432396353.52999973</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="10">
         <v>315785490.90000004</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="10">
         <v>343305940.30000001</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="10">
         <v>211920745.56999987</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="10">
         <v>265213656.00999984</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="10">
         <v>194341441.99000004</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="10">
         <v>259676192.02999991</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="10">
         <v>235160790.64999989</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="10">
         <v>239915174.09000009</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="10">
         <v>320016310.69999987</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="10">
         <v>248153419.43999988</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="16">
         <v>250087900.09999985</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="10">
         <v>102908468.63000008</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="10">
         <v>89951017.009999916</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="10">
         <v>103962159.89</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="10">
         <v>126499098.89000013</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="10">
         <v>119781147.39000012</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="10">
         <v>102422258.39000003</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="10">
         <v>106673179.14000016</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="10">
         <v>129818268.26999968</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="10">
         <v>94220853.289999992</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="10">
         <v>95245973.850000054</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="10">
         <v>99538466.329999983</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="16">
         <v>116024848.11000007</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="10">
         <v>283534466.11000001</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="10">
         <v>76286424.280000001</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="10">
         <v>188305279.67000002</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="10">
         <v>148513630.85000002</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="10">
         <v>177773265.46000001</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="10">
         <v>133228213.97</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="10">
         <v>228911289.43000001</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="10">
         <v>123586495.88</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="10">
         <v>192746987.31</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="10">
         <v>120327139.18000001</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="10">
         <v>220113236.33000001</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="16">
         <v>153344255.65000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="17">
-        <v>0</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17">
+      <c r="B32" s="10">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
         <v>165900</v>
       </c>
-      <c r="I32" s="17">
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
-        <v>0</v>
-      </c>
-      <c r="K32" s="17">
-        <v>0</v>
-      </c>
-      <c r="L32" s="17">
-        <v>0</v>
-      </c>
-      <c r="M32" s="17">
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="10">
         <v>3927.3</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="10">
         <v>3555.18</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="10">
         <v>6347.6</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="10">
         <v>1842.73</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="10">
         <v>1238.83</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="10">
         <v>3651.04</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="10">
         <v>13220.330000000002</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="10">
         <v>7991.74</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="10">
         <v>3550.66</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="10">
         <v>5883.38</v>
       </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="17">
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
         <v>7475.16</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="10">
         <v>74390.23</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="10">
         <v>67510.959999999992</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="10">
         <v>123114.41</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="10">
         <v>114632.07</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="10">
         <v>108698.47</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="10">
         <v>122726.62</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="10">
         <v>8469866.25</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="10">
         <v>3491485.64</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="10">
         <v>44600.41</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="10">
         <v>31094.9</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="10">
         <v>253868.51</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="16">
         <v>376871.07999999996</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="10">
         <v>98049033.020000011</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="10">
         <v>202976708.15000001</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="10">
         <v>54909375.57</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="10">
         <v>187234120.64999998</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="10">
         <v>64835650.019999996</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="10">
         <v>117621735.63</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="10">
         <v>177124073.09999999</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="10">
         <v>165516986.04000002</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="10">
         <v>120392877.47999999</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="10">
         <v>73447912.450000003</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="10">
         <v>80280319.710000008</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="16">
         <v>115178138.50000001</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="10">
         <v>8119926.25</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="10">
         <v>7808280.4900000002</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="10">
         <v>17915277.68</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="10">
         <v>10159037.310000001</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="10">
         <v>14956209.359999999</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="10">
         <v>12807716.930000002</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="10">
         <v>21014941.460000001</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="10">
         <v>14490023.210000001</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="10">
         <v>11355388.859999999</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="10">
         <v>11924591.850000001</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="10">
         <v>19189449.459999997</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="16">
         <v>10363469.199999999</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="17">
-        <v>0</v>
-      </c>
-      <c r="C37" s="17">
+      <c r="B37" s="10">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
         <v>1800</v>
       </c>
-      <c r="D37" s="17">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
-        <v>0</v>
-      </c>
-      <c r="F37" s="17">
-        <v>0</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0</v>
-      </c>
-      <c r="H37" s="17">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0</v>
-      </c>
-      <c r="K37" s="17">
-        <v>0</v>
-      </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="17">
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
         <v>5891.1</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="10">
         <v>7351249.7299999977</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="10">
         <v>4059425.0399999991</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="10">
         <v>3842063.9899999998</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="10">
         <v>3930691.4499999997</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="10">
         <v>5428206.4500000002</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="10">
         <v>5768366.0399999991</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="10">
         <v>6496963.3300000001</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="10">
         <v>5638145.4000000004</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="10">
         <v>5298509.66</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="10">
         <v>5984476.9799999995</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="10">
         <v>8852285.6300000027</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="16">
         <v>6867957.5000000009</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="10">
         <v>2380407.91</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="10">
         <v>2645240.36</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="10">
         <v>3294288.1</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="10">
         <v>2524515.61</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="10">
         <v>2349338.1199999996</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="10">
         <v>2458499.5099999998</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="10">
         <v>2990100.9</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="10">
         <v>3229445.63</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="10">
         <v>2320012.94</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="10">
         <v>1408388.8900000001</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="10">
         <v>1278562.56</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="16">
         <v>3008990.64</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="10">
         <v>333663352.36000001</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="10">
         <v>58524349.93</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="10">
         <v>296430507.07999998</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="10">
         <v>108803399.99000001</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="10">
         <v>116192166.13000001</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="10">
         <v>125647175.73</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="10">
         <v>223461832.22</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="10">
         <v>184578001.45000002</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="10">
         <v>150839573.81999999</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="10">
         <v>231851856.94</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="10">
         <v>192126274.55000001</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="16">
         <v>138202779.22</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="10">
         <v>8059983.5899999999</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="10">
         <v>9974130.7699999996</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="10">
         <v>8190186.5800000001</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="10">
         <v>7749121.3200000003</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="10">
         <v>8730035.9399999995</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="10">
         <v>6713177.8300000001</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="10">
         <v>5368923.0099999998</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="10">
         <v>8533022.4800000004</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="10">
         <v>7990013.9199999999</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="10">
         <v>8413911.6799999997</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="10">
         <v>5068393.0599999996</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="16">
         <v>6908128.2200000007</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="10">
         <v>1568786</v>
       </c>
-      <c r="C42" s="17">
-        <v>0</v>
-      </c>
-      <c r="D42" s="17">
-        <v>0</v>
-      </c>
-      <c r="E42" s="17">
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
         <v>1762126.63</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="10">
         <v>10233.02</v>
       </c>
-      <c r="G42" s="17">
-        <v>0</v>
-      </c>
-      <c r="H42" s="17">
-        <v>0</v>
-      </c>
-      <c r="I42" s="17">
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
         <v>2050</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="10">
         <v>1069959.9699999997</v>
       </c>
-      <c r="K42" s="17">
-        <v>0</v>
-      </c>
-      <c r="L42" s="17">
-        <v>0</v>
-      </c>
-      <c r="M42" s="17">
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10">
+        <v>0</v>
+      </c>
+      <c r="M42" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="10">
         <v>54269000.830000035</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="10">
         <v>47989463.460000008</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="10">
         <v>43994134.950000003</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="10">
         <v>48145606.399999984</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="10">
         <v>55038364.890000001</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="10">
         <v>32082503.430000003</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="10">
         <v>25471021.500000004</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="10">
         <v>28446711.239999991</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="10">
         <v>36650783.089999989</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="10">
         <v>45656317.650000006</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="10">
         <v>36824121.500000015</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="16">
         <v>47915519.920000017</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="10">
         <v>946538048.78000021</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="10">
         <v>713062014.67000031</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="10">
         <v>852902065.42999995</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="10">
         <v>720501815.25</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="10">
         <v>814224770.67000067</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="10">
         <v>906439122.01999986</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="10">
         <v>891348924.60999954</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="10">
         <v>796833584.58999991</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="10">
         <v>760842611.31999981</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="10">
         <v>972646154.04999995</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="10">
         <v>652689331.32999992</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="16">
         <v>945473765.12999988</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="10">
         <v>362216.2</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="10">
         <v>323366.35000000003</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="10">
         <v>235324.68</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="10">
         <v>177740.87</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="10">
         <v>2212462.44</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="10">
         <v>161965.62</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="10">
         <v>76482.400000000009</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="10">
         <v>4619418.9300000006</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="10">
         <v>125447.81</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="10">
         <v>412178.42</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="10">
         <v>8594624.5600000005</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="16">
         <v>330872.31999999995</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="10">
         <v>268467.83</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="10">
         <v>257823.29</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="10">
         <v>3861452.66</v>
       </c>
-      <c r="E46" s="17">
-        <v>0</v>
-      </c>
-      <c r="F46" s="17">
-        <v>0</v>
-      </c>
-      <c r="G46" s="17">
-        <v>0</v>
-      </c>
-      <c r="H46" s="17">
-        <v>0</v>
-      </c>
-      <c r="I46" s="17">
-        <v>0</v>
-      </c>
-      <c r="J46" s="17">
-        <v>0</v>
-      </c>
-      <c r="K46" s="17">
-        <v>0</v>
-      </c>
-      <c r="L46" s="17">
-        <v>0</v>
-      </c>
-      <c r="M46" s="17">
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10">
+        <v>0</v>
+      </c>
+      <c r="M46" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="10">
         <v>5814891.1699999999</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="10">
         <v>4415186.78</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="10">
         <v>5666132.3800000008</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="10">
         <v>1891129.6</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="10">
         <v>1584474.19</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="10">
         <v>1345855.2000000007</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="10">
         <v>1218293.51</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="10">
         <v>922830.89999999991</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="10">
         <v>1284995.25</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="10">
         <v>1493180.3299999998</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="10">
         <v>6336108.4700000007</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="16">
         <v>2260317.14</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="17">
-        <v>0</v>
-      </c>
-      <c r="C48" s="17">
-        <v>0</v>
-      </c>
-      <c r="D48" s="17">
+      <c r="B48" s="10">
+        <v>0</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10">
         <v>800.23</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="10">
         <v>1857.42</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="10">
         <v>816.17</v>
       </c>
-      <c r="G48" s="17">
-        <v>0</v>
-      </c>
-      <c r="H48" s="17">
-        <v>0</v>
-      </c>
-      <c r="I48" s="17">
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
         <v>8997.9500000000007</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="10">
         <v>1082.8900000000001</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="10">
         <v>1880.19</v>
       </c>
-      <c r="L48" s="17">
-        <v>0</v>
-      </c>
-      <c r="M48" s="17">
+      <c r="L48" s="10">
+        <v>0</v>
+      </c>
+      <c r="M48" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="10">
         <v>369098.72000000003</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="10">
         <v>407955.77</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="10">
         <v>9868222.9000000004</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="10">
         <v>7303879.71</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="10">
         <v>6965780.0999999996</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="10">
         <v>5530960.79</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="10">
         <v>7622398.0399999991</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="10">
         <v>5838084.6700000009</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="10">
         <v>4690327.3900000006</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="10">
         <v>8040284.9100000001</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="10">
         <v>17166220.669999998</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="16">
         <v>3971879</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="10">
         <v>2760.14</v>
       </c>
-      <c r="C50" s="17">
-        <v>0</v>
-      </c>
-      <c r="D50" s="17">
-        <v>0</v>
-      </c>
-      <c r="E50" s="17">
-        <v>0</v>
-      </c>
-      <c r="F50" s="17">
-        <v>0</v>
-      </c>
-      <c r="G50" s="17">
-        <v>0</v>
-      </c>
-      <c r="H50" s="17">
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
         <v>674.26</v>
       </c>
-      <c r="I50" s="17">
-        <v>0</v>
-      </c>
-      <c r="J50" s="17">
-        <v>0</v>
-      </c>
-      <c r="K50" s="17">
-        <v>0</v>
-      </c>
-      <c r="L50" s="17">
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+      <c r="J50" s="10">
+        <v>0</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0</v>
+      </c>
+      <c r="L50" s="10">
         <v>24210.35</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="10">
         <v>2004170213.1099997</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="10">
         <v>791298856.2700001</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="10">
         <v>874055141.03999937</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="10">
         <v>1155283036.7999995</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="10">
         <v>1119218147.0400009</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="10">
         <v>885876682.83999729</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="10">
         <v>903949025.0599997</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="10">
         <v>913312490.63000119</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="10">
         <v>899107621.25000024</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="10">
         <v>859265594.12000227</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="10">
         <v>747818716.78000212</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="16">
         <v>888012875.2499994</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="10">
         <v>299954.67</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="10">
         <v>30800</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="10">
         <v>11400</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="10">
         <v>102171.2</v>
       </c>
-      <c r="F52" s="17">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17">
-        <v>0</v>
-      </c>
-      <c r="H52" s="17">
-        <v>0</v>
-      </c>
-      <c r="I52" s="17">
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
         <v>5610</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="10">
         <v>197150</v>
       </c>
-      <c r="K52" s="17">
-        <v>0</v>
-      </c>
-      <c r="L52" s="17">
-        <v>0</v>
-      </c>
-      <c r="M52" s="17">
+      <c r="K52" s="10">
+        <v>0</v>
+      </c>
+      <c r="L52" s="10">
+        <v>0</v>
+      </c>
+      <c r="M52" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="10">
         <v>1903.22</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="10">
         <v>11185.289999999999</v>
       </c>
-      <c r="D53" s="17">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17">
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
         <v>13256.56</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="10">
         <v>10152.219999999999</v>
       </c>
-      <c r="G53" s="17">
-        <v>0</v>
-      </c>
-      <c r="H53" s="17">
-        <v>0</v>
-      </c>
-      <c r="I53" s="17">
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
         <v>72752.639999999999</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="10">
         <v>70930</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="10">
         <v>249063.15000000002</v>
       </c>
-      <c r="L53" s="17">
-        <v>0</v>
-      </c>
-      <c r="M53" s="17">
+      <c r="L53" s="10">
+        <v>0</v>
+      </c>
+      <c r="M53" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="10">
         <v>291586128.11999971</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="10">
         <v>226292738.88999999</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="10">
         <v>297415179.23000032</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="10">
         <v>271224122.87999982</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="10">
         <v>245023761.16000026</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="10">
         <v>185142849.59000006</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="10">
         <v>254684683.10999987</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="10">
         <v>258372085.39999977</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="10">
         <v>180596473.40999982</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="10">
         <v>193424200.18000007</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="10">
         <v>193555890.74999997</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="16">
         <v>223398287.18000001</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="10">
         <v>7976171.1299999999</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="10">
         <v>9189155.459999999</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="10">
         <v>2796095.93</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="10">
         <v>17317302.329999998</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="10">
         <v>4662230.5200000005</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="10">
         <v>2232830.9499999997</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="10">
         <v>11669888.390000001</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="10">
         <v>3073473.91</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="10">
         <v>4837396.5999999996</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="10">
         <v>1892035.06</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="10">
         <v>1119677.46</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="16">
         <v>1306157.68</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="10">
         <v>48192591.409999996</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="10">
         <v>51112974.319999993</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="10">
         <v>25134065.970000003</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="10">
         <v>41813806.619999997</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="10">
         <v>74148272.670000002</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="10">
         <v>12245468.140000001</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="10">
         <v>58906693.210000001</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="10">
         <v>39249484.139999993</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="10">
         <v>65911452.860000007</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="10">
         <v>31728100.280000001</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="10">
         <v>68753048.709999993</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="16">
         <v>32242824.310000006</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="10">
         <v>847346490.07999921</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="10">
         <v>646676372.79999983</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="10">
         <v>763954595.13999951</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="10">
         <v>821174418.32999873</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="10">
         <v>930020520.17999876</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="10">
         <v>598848975.85000026</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="10">
         <v>660726643.23000026</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="10">
         <v>427278179.51999986</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="10">
         <v>218191522.1500001</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="10">
         <v>275834612.37999964</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="10">
         <v>337641406.82000041</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="16">
         <v>776249861.91000104</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="10">
         <v>380326056.24000001</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="10">
         <v>183197686.41</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="10">
         <v>272711648.45999998</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="10">
         <v>173467346.15000001</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="10">
         <v>194965454.58000001</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="10">
         <v>272397418.35999995</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="10">
         <v>308821798.33000004</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="10">
         <v>192767212.38</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="10">
         <v>187967619.02000001</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="10">
         <v>187542267.25</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="10">
         <v>152784607.81</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="16">
         <v>126603730.55999999</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="17">
-        <v>0</v>
-      </c>
-      <c r="C59" s="17">
-        <v>0</v>
-      </c>
-      <c r="D59" s="17">
-        <v>0</v>
-      </c>
-      <c r="E59" s="17">
-        <v>0</v>
-      </c>
-      <c r="F59" s="17">
-        <v>0</v>
-      </c>
-      <c r="G59" s="17">
-        <v>0</v>
-      </c>
-      <c r="H59" s="17">
+      <c r="B59" s="10">
+        <v>0</v>
+      </c>
+      <c r="C59" s="10">
+        <v>0</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
         <v>6792</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="10">
         <v>52686</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="10">
         <v>25029</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="10">
         <v>16711</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="10">
         <v>5489.5</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="21">
         <v>70295767.560000002</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="21">
         <v>62627201.350000001</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="21">
         <v>55868291.440000013</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="21">
         <v>57930994.110000022</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="21">
         <v>57495858.270000011</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="21">
         <v>86994894.190000042</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="21">
         <v>52385990.169999979</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="21">
         <v>70706571.649999991</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="21">
         <v>56867393.490000002</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="21">
         <v>57320834.009999976</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="21">
         <v>71938279.769999951</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="22">
         <v>56391560.749999993</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>